--- a/portfolio_downloads/20250930_Fondsenlijst.xlsx
+++ b/portfolio_downloads/20250930_Fondsenlijst.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/performance/portfolio_downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\intern\Riskmanagement\2025\ZZ info Pieter Prins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7268721-E3FC-A84E-9D12-481FB2477A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38824027-DD02-4E69-A35F-E58A79B6BE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="600" windowWidth="24060" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$O$561</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -879,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1185,9 +1182,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1404,22 +1401,22 @@
         <v>231</v>
       </c>
       <c r="K5">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L5">
-        <v>299844.34999999998</v>
+        <v>300580.40999999997</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>299844.34999999998</v>
+        <v>300580.40999999997</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1557,7 +1554,7 @@
         <v>419.44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1601,7 +1598,7 @@
         <v>959.29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>16302.45</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1689,7 +1686,7 @@
         <v>621.42999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1733,7 +1730,7 @@
         <v>1161.49</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1777,7 +1774,7 @@
         <v>12221.19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1871,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1900,22 +1897,22 @@
         <v>39</v>
       </c>
       <c r="K16">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L16">
-        <v>50623.07</v>
+        <v>50747.34</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>50623.07</v>
+        <v>50747.34</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2053,7 +2050,7 @@
         <v>540.46</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2097,7 +2094,7 @@
         <v>835.51</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2141,7 +2138,7 @@
         <v>8922.56</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2235,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2264,22 +2261,22 @@
         <v>45</v>
       </c>
       <c r="K24">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L24">
-        <v>58411.24</v>
+        <v>58554.63</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>58411.24</v>
+        <v>58554.63</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2373,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2414,7 @@
         <v>763.02</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2461,7 +2458,7 @@
         <v>1180.1300000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2505,7 +2502,7 @@
         <v>10792.09</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2675,22 +2672,22 @@
         <v>102</v>
       </c>
       <c r="K33">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L33">
-        <v>132398.81</v>
+        <v>132723.82</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>132398.81</v>
+        <v>132723.82</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -2737,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2784,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2828,7 +2825,7 @@
         <v>703.82</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2872,7 +2869,7 @@
         <v>883.91</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2916,7 +2913,7 @@
         <v>8926.0400000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -3010,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3057,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3086,22 +3083,22 @@
         <v>119</v>
       </c>
       <c r="K42">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L42">
-        <v>154465.26999999999</v>
+        <v>154844.45000000001</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>154465.26999999999</v>
+        <v>154844.45000000001</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3148,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3239,7 +3236,7 @@
         <v>657.78</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>1040.77</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3327,7 +3324,7 @@
         <v>7975.1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3468,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3497,22 +3494,22 @@
         <v>144</v>
       </c>
       <c r="K51">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L51">
-        <v>186915.96</v>
+        <v>187374.8</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <v>186915.96</v>
+        <v>187374.8</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -3606,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3650,7 +3647,7 @@
         <v>350.15</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3694,7 +3691,7 @@
         <v>591.64</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>5152.53</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3785,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3832,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -3879,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3908,22 +3905,22 @@
         <v>114</v>
       </c>
       <c r="K60">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L60">
-        <v>147975.14000000001</v>
+        <v>148338.38</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <v>147975.14000000001</v>
+        <v>148338.38</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3970,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4017,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4061,7 +4058,7 @@
         <v>466.15</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4105,7 +4102,7 @@
         <v>750.16</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -4149,7 +4146,7 @@
         <v>5345.35</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -4196,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -4243,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -4319,22 +4316,22 @@
         <v>242</v>
       </c>
       <c r="K69">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L69">
-        <v>314122.65999999997</v>
+        <v>314893.76</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>314122.65999999997</v>
+        <v>314893.76</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -4381,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -4501,22 +4498,22 @@
         <v>3394</v>
       </c>
       <c r="K73">
-        <v>28.15</v>
+        <v>28.19</v>
       </c>
       <c r="L73">
-        <v>95541.1</v>
+        <v>95676.86</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
-        <v>95541.1</v>
+        <v>95676.86</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -4548,22 +4545,22 @@
         <v>662</v>
       </c>
       <c r="K74">
-        <v>42.46</v>
+        <v>42.71</v>
       </c>
       <c r="L74">
-        <v>28108.52</v>
+        <v>28274.02</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <v>28108.52</v>
+        <v>28274.02</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -4607,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -4701,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -4745,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -4789,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -4818,22 +4815,22 @@
         <v>1782</v>
       </c>
       <c r="K80">
-        <v>89.8</v>
+        <v>90.02</v>
       </c>
       <c r="L80">
-        <v>160023.6</v>
+        <v>160415.64000000001</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
-        <v>160023.6</v>
+        <v>160415.64000000001</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -4880,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -4927,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4971,7 +4968,7 @@
         <v>211.54</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -5015,7 +5012,7 @@
         <v>1878.96</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -5059,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -5088,22 +5085,22 @@
         <v>1697</v>
       </c>
       <c r="K86">
-        <v>28.15</v>
+        <v>28.19</v>
       </c>
       <c r="L86">
-        <v>47770.55</v>
+        <v>47838.43</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>47770.55</v>
+        <v>47838.43</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -5135,22 +5132,22 @@
         <v>441</v>
       </c>
       <c r="K87">
-        <v>42.46</v>
+        <v>42.71</v>
       </c>
       <c r="L87">
-        <v>18724.86</v>
+        <v>18835.11</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
       <c r="N87">
-        <v>18724.86</v>
+        <v>18835.11</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5288,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5332,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -5376,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -5405,22 +5402,22 @@
         <v>122</v>
       </c>
       <c r="K93">
-        <v>1052.76</v>
+        <v>1052.95</v>
       </c>
       <c r="L93">
-        <v>128436.72</v>
+        <v>128459.9</v>
       </c>
       <c r="M93">
         <v>1</v>
       </c>
       <c r="N93">
-        <v>128436.72</v>
+        <v>128459.9</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -5449,22 +5446,22 @@
         <v>1400</v>
       </c>
       <c r="K94">
-        <v>108.38805000000001</v>
+        <v>108.3874</v>
       </c>
       <c r="L94">
-        <v>151743.26999999999</v>
+        <v>151742.35999999999</v>
       </c>
       <c r="M94">
         <v>1</v>
       </c>
       <c r="N94">
-        <v>151743.26999999999</v>
+        <v>151742.35999999999</v>
       </c>
       <c r="O94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -5493,22 +5490,22 @@
         <v>885</v>
       </c>
       <c r="K95">
-        <v>89.8</v>
+        <v>90.02</v>
       </c>
       <c r="L95">
-        <v>79473</v>
+        <v>79667.7</v>
       </c>
       <c r="M95">
         <v>1</v>
       </c>
       <c r="N95">
-        <v>79473</v>
+        <v>79667.7</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -5555,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -5602,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -5631,22 +5628,22 @@
         <v>860</v>
       </c>
       <c r="K98">
-        <v>129.84</v>
+        <v>129.87</v>
       </c>
       <c r="L98">
-        <v>111662.39999999999</v>
+        <v>111688.2</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>111662.39999999999</v>
+        <v>111688.2</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -5690,7 +5687,7 @@
         <v>107.89</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -5734,7 +5731,7 @@
         <v>1138.95</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -5778,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5807,22 +5804,22 @@
         <v>2546</v>
       </c>
       <c r="K102">
-        <v>28.15</v>
+        <v>28.19</v>
       </c>
       <c r="L102">
-        <v>71669.899999999994</v>
+        <v>71771.740000000005</v>
       </c>
       <c r="M102">
         <v>1</v>
       </c>
       <c r="N102">
-        <v>71669.899999999994</v>
+        <v>71771.740000000005</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5854,22 +5851,22 @@
         <v>551</v>
       </c>
       <c r="K103">
-        <v>42.46</v>
+        <v>42.71</v>
       </c>
       <c r="L103">
-        <v>23395.46</v>
+        <v>23533.21</v>
       </c>
       <c r="M103">
         <v>1</v>
       </c>
       <c r="N103">
-        <v>23395.46</v>
+        <v>23533.21</v>
       </c>
       <c r="O103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -5960,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -6007,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -6051,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -6095,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>101</v>
       </c>
@@ -6124,22 +6121,22 @@
         <v>82</v>
       </c>
       <c r="K109">
-        <v>1052.76</v>
+        <v>1052.95</v>
       </c>
       <c r="L109">
-        <v>86326.32</v>
+        <v>86341.9</v>
       </c>
       <c r="M109">
         <v>1</v>
       </c>
       <c r="N109">
-        <v>86326.32</v>
+        <v>86341.9</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -6168,22 +6165,22 @@
         <v>800</v>
       </c>
       <c r="K110">
-        <v>108.38805000000001</v>
+        <v>108.3874</v>
       </c>
       <c r="L110">
-        <v>86710.44</v>
+        <v>86709.92</v>
       </c>
       <c r="M110">
         <v>1</v>
       </c>
       <c r="N110">
-        <v>86710.44</v>
+        <v>86709.92</v>
       </c>
       <c r="O110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -6212,22 +6209,22 @@
         <v>1200</v>
       </c>
       <c r="K111">
-        <v>89.8</v>
+        <v>90.02</v>
       </c>
       <c r="L111">
-        <v>107760</v>
+        <v>108024</v>
       </c>
       <c r="M111">
         <v>1</v>
       </c>
       <c r="N111">
-        <v>107760</v>
+        <v>108024</v>
       </c>
       <c r="O111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -6274,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>101</v>
       </c>
@@ -6321,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>101</v>
       </c>
@@ -6350,22 +6347,22 @@
         <v>516</v>
       </c>
       <c r="K114">
-        <v>129.84</v>
+        <v>129.87</v>
       </c>
       <c r="L114">
-        <v>66997.440000000002</v>
+        <v>67012.92</v>
       </c>
       <c r="M114">
         <v>1</v>
       </c>
       <c r="N114">
-        <v>66997.440000000002</v>
+        <v>67012.92</v>
       </c>
       <c r="O114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>102</v>
       </c>
@@ -6409,7 +6406,7 @@
         <v>137.91999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>102</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>1102.6099999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>102</v>
       </c>
@@ -6497,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>102</v>
       </c>
@@ -6541,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>102</v>
       </c>
@@ -6585,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>102</v>
       </c>
@@ -6614,22 +6611,22 @@
         <v>2472</v>
       </c>
       <c r="K120">
-        <v>28.15</v>
+        <v>28.19</v>
       </c>
       <c r="L120">
-        <v>69586.8</v>
+        <v>69685.679999999993</v>
       </c>
       <c r="M120">
         <v>1</v>
       </c>
       <c r="N120">
-        <v>69586.8</v>
+        <v>69685.679999999993</v>
       </c>
       <c r="O120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>102</v>
       </c>
@@ -6661,22 +6658,22 @@
         <v>581</v>
       </c>
       <c r="K121">
-        <v>42.46</v>
+        <v>42.71</v>
       </c>
       <c r="L121">
-        <v>24669.26</v>
+        <v>24814.51</v>
       </c>
       <c r="M121">
         <v>1</v>
       </c>
       <c r="N121">
-        <v>24669.26</v>
+        <v>24814.51</v>
       </c>
       <c r="O121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>102</v>
       </c>
@@ -6720,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -6764,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>102</v>
       </c>
@@ -6808,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>102</v>
       </c>
@@ -6837,22 +6834,22 @@
         <v>78</v>
       </c>
       <c r="K125">
-        <v>1052.76</v>
+        <v>1052.95</v>
       </c>
       <c r="L125">
-        <v>82115.28</v>
+        <v>82130.100000000006</v>
       </c>
       <c r="M125">
         <v>1</v>
       </c>
       <c r="N125">
-        <v>82115.28</v>
+        <v>82130.100000000006</v>
       </c>
       <c r="O125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>102</v>
       </c>
@@ -6881,22 +6878,22 @@
         <v>776</v>
       </c>
       <c r="K126">
-        <v>108.38805000000001</v>
+        <v>108.3874</v>
       </c>
       <c r="L126">
-        <v>84109.13</v>
+        <v>84108.62</v>
       </c>
       <c r="M126">
         <v>1</v>
       </c>
       <c r="N126">
-        <v>84109.13</v>
+        <v>84108.62</v>
       </c>
       <c r="O126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>102</v>
       </c>
@@ -6925,22 +6922,22 @@
         <v>1159</v>
       </c>
       <c r="K127">
-        <v>89.8</v>
+        <v>90.02</v>
       </c>
       <c r="L127">
-        <v>104078.2</v>
+        <v>104333.18</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
       <c r="N127">
-        <v>104078.2</v>
+        <v>104333.18</v>
       </c>
       <c r="O127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>102</v>
       </c>
@@ -6984,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>102</v>
       </c>
@@ -7031,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>102</v>
       </c>
@@ -7060,22 +7057,22 @@
         <v>534</v>
       </c>
       <c r="K130">
-        <v>129.84</v>
+        <v>129.87</v>
       </c>
       <c r="L130">
-        <v>69334.559999999998</v>
+        <v>69350.58</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="N130">
-        <v>69334.559999999998</v>
+        <v>69350.58</v>
       </c>
       <c r="O130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -7119,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -7166,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>116</v>
       </c>
@@ -7210,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>116</v>
       </c>
@@ -7254,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>116</v>
       </c>
@@ -7301,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>116</v>
       </c>
@@ -7330,22 +7327,22 @@
         <v>133</v>
       </c>
       <c r="K136">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L136">
-        <v>172637.66</v>
+        <v>173061.45</v>
       </c>
       <c r="M136">
         <v>1</v>
       </c>
       <c r="N136">
-        <v>172637.66</v>
+        <v>173061.45</v>
       </c>
       <c r="O136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>116</v>
       </c>
@@ -7389,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>116</v>
       </c>
@@ -7436,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>117</v>
       </c>
@@ -7480,7 +7477,7 @@
         <v>434.76</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>117</v>
       </c>
@@ -7524,7 +7521,7 @@
         <v>684.75</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>117</v>
       </c>
@@ -7568,7 +7565,7 @@
         <v>7373.75</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -7612,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>117</v>
       </c>
@@ -7659,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>117</v>
       </c>
@@ -7688,22 +7685,22 @@
         <v>36</v>
       </c>
       <c r="K144">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L144">
-        <v>46728.99</v>
+        <v>46843.7</v>
       </c>
       <c r="M144">
         <v>1</v>
       </c>
       <c r="N144">
-        <v>46728.99</v>
+        <v>46843.7</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>117</v>
       </c>
@@ -7747,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -7794,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -7838,7 +7835,7 @@
         <v>445.94</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>119</v>
       </c>
@@ -7882,7 +7879,7 @@
         <v>686.98</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>119</v>
       </c>
@@ -7926,7 +7923,7 @@
         <v>6350.79</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>119</v>
       </c>
@@ -7970,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>119</v>
       </c>
@@ -8014,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>119</v>
       </c>
@@ -8061,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -8090,22 +8087,22 @@
         <v>59</v>
       </c>
       <c r="K153">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L153">
-        <v>76583.62</v>
+        <v>76771.62</v>
       </c>
       <c r="M153">
         <v>1</v>
       </c>
       <c r="N153">
-        <v>76583.62</v>
+        <v>76771.62</v>
       </c>
       <c r="O153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>119</v>
       </c>
@@ -8149,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>119</v>
       </c>
@@ -8196,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>121</v>
       </c>
@@ -8240,7 +8237,7 @@
         <v>431.12</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>121</v>
       </c>
@@ -8284,7 +8281,7 @@
         <v>544.82000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -8328,7 +8325,7 @@
         <v>5455.18</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>121</v>
       </c>
@@ -8372,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -8416,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -8463,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>121</v>
       </c>
@@ -8492,22 +8489,22 @@
         <v>73</v>
       </c>
       <c r="K162">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L162">
-        <v>94756.01</v>
+        <v>94988.61</v>
       </c>
       <c r="M162">
         <v>1</v>
       </c>
       <c r="N162">
-        <v>94756.01</v>
+        <v>94988.61</v>
       </c>
       <c r="O162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>121</v>
       </c>
@@ -8551,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>121</v>
       </c>
@@ -8598,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>123</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>365.45</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>123</v>
       </c>
@@ -8686,7 +8683,7 @@
         <v>591.69000000000005</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>123</v>
       </c>
@@ -8730,7 +8727,7 @@
         <v>4551.7</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>123</v>
       </c>
@@ -8774,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>123</v>
       </c>
@@ -8818,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>123</v>
       </c>
@@ -8865,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -8894,22 +8891,22 @@
         <v>82</v>
       </c>
       <c r="K171">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L171">
-        <v>106438.26</v>
+        <v>106699.54</v>
       </c>
       <c r="M171">
         <v>1</v>
       </c>
       <c r="N171">
-        <v>106438.26</v>
+        <v>106699.54</v>
       </c>
       <c r="O171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>123</v>
       </c>
@@ -8953,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>123</v>
       </c>
@@ -9000,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>125</v>
       </c>
@@ -9044,7 +9041,7 @@
         <v>222.35</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>125</v>
       </c>
@@ -9088,7 +9085,7 @@
         <v>381.65</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>125</v>
       </c>
@@ -9132,7 +9129,7 @@
         <v>3299.82</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>125</v>
       </c>
@@ -9176,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -9220,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>125</v>
       </c>
@@ -9267,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>125</v>
       </c>
@@ -9296,22 +9293,22 @@
         <v>73</v>
       </c>
       <c r="K180">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L180">
-        <v>94756.01</v>
+        <v>94988.61</v>
       </c>
       <c r="M180">
         <v>1</v>
       </c>
       <c r="N180">
-        <v>94756.01</v>
+        <v>94988.61</v>
       </c>
       <c r="O180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>125</v>
       </c>
@@ -9355,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>125</v>
       </c>
@@ -9402,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>127</v>
       </c>
@@ -9446,7 +9443,7 @@
         <v>197.86</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>127</v>
       </c>
@@ -9490,7 +9487,7 @@
         <v>353.44</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>127</v>
       </c>
@@ -9534,7 +9531,7 @@
         <v>2757.81</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>127</v>
       </c>
@@ -9578,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>127</v>
       </c>
@@ -9622,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>127</v>
       </c>
@@ -9669,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>127</v>
       </c>
@@ -9698,22 +9695,22 @@
         <v>114</v>
       </c>
       <c r="K189">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L189">
-        <v>147975.14000000001</v>
+        <v>148338.38</v>
       </c>
       <c r="M189">
         <v>1</v>
       </c>
       <c r="N189">
-        <v>147975.14000000001</v>
+        <v>148338.38</v>
       </c>
       <c r="O189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>127</v>
       </c>
@@ -9757,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>127</v>
       </c>
@@ -9804,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>129</v>
       </c>
@@ -9851,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>129</v>
       </c>
@@ -9898,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>129</v>
       </c>
@@ -9945,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>129</v>
       </c>
@@ -9992,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>129</v>
       </c>
@@ -10039,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>129</v>
       </c>
@@ -10086,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>129</v>
       </c>
@@ -10133,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>129</v>
       </c>
@@ -10180,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>129</v>
       </c>
@@ -10227,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>129</v>
       </c>
@@ -10274,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>129</v>
       </c>
@@ -10321,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>129</v>
       </c>
@@ -10368,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>129</v>
       </c>
@@ -10415,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>129</v>
       </c>
@@ -10462,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>129</v>
       </c>
@@ -10509,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>129</v>
       </c>
@@ -10556,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>129</v>
       </c>
@@ -10603,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>129</v>
       </c>
@@ -10650,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>129</v>
       </c>
@@ -10697,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>129</v>
       </c>
@@ -10744,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>129</v>
       </c>
@@ -10791,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>129</v>
       </c>
@@ -10820,22 +10817,22 @@
         <v>70</v>
       </c>
       <c r="K213">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L213">
-        <v>90861.93</v>
+        <v>91084.97</v>
       </c>
       <c r="M213">
         <v>1</v>
       </c>
       <c r="N213">
-        <v>90861.93</v>
+        <v>91084.97</v>
       </c>
       <c r="O213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -10882,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>129</v>
       </c>
@@ -10929,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>129</v>
       </c>
@@ -10976,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>129</v>
       </c>
@@ -11023,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>129</v>
       </c>
@@ -11070,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>129</v>
       </c>
@@ -11117,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>129</v>
       </c>
@@ -11164,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>129</v>
       </c>
@@ -11211,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>129</v>
       </c>
@@ -11258,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -11305,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>129</v>
       </c>
@@ -11352,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>212</v>
       </c>
@@ -11396,7 +11393,7 @@
         <v>458.12</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>212</v>
       </c>
@@ -11440,7 +11437,7 @@
         <v>648.22</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>212</v>
       </c>
@@ -11484,7 +11481,7 @@
         <v>6938.75</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>212</v>
       </c>
@@ -11531,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>212</v>
       </c>
@@ -11578,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>212</v>
       </c>
@@ -11625,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -11672,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>212</v>
       </c>
@@ -11719,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>212</v>
       </c>
@@ -11766,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>212</v>
       </c>
@@ -11813,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>212</v>
       </c>
@@ -11860,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>212</v>
       </c>
@@ -11907,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>212</v>
       </c>
@@ -11954,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>212</v>
       </c>
@@ -12001,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>212</v>
       </c>
@@ -12048,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>212</v>
       </c>
@@ -12095,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>212</v>
       </c>
@@ -12142,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>212</v>
       </c>
@@ -12189,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>212</v>
       </c>
@@ -12236,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>212</v>
       </c>
@@ -12283,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>212</v>
       </c>
@@ -12330,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>212</v>
       </c>
@@ -12377,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -12424,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>212</v>
       </c>
@@ -12453,22 +12450,22 @@
         <v>39</v>
       </c>
       <c r="K248">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L248">
-        <v>50623.07</v>
+        <v>50747.34</v>
       </c>
       <c r="M248">
         <v>1</v>
       </c>
       <c r="N248">
-        <v>50623.07</v>
+        <v>50747.34</v>
       </c>
       <c r="O248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>212</v>
       </c>
@@ -12515,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>212</v>
       </c>
@@ -12562,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>212</v>
       </c>
@@ -12609,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>212</v>
       </c>
@@ -12656,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>212</v>
       </c>
@@ -12703,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>212</v>
       </c>
@@ -12750,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>212</v>
       </c>
@@ -12797,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>212</v>
       </c>
@@ -12844,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>212</v>
       </c>
@@ -12891,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>212</v>
       </c>
@@ -12938,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>212</v>
       </c>
@@ -12985,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>213</v>
       </c>
@@ -13029,7 +13026,7 @@
         <v>367.45</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>213</v>
       </c>
@@ -13073,7 +13070,7 @@
         <v>697.71</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>213</v>
       </c>
@@ -13117,7 +13114,7 @@
         <v>5842.52</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>213</v>
       </c>
@@ -13164,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>213</v>
       </c>
@@ -13211,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>213</v>
       </c>
@@ -13258,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>213</v>
       </c>
@@ -13305,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>213</v>
       </c>
@@ -13352,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>213</v>
       </c>
@@ -13399,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>213</v>
       </c>
@@ -13446,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>213</v>
       </c>
@@ -13493,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>213</v>
       </c>
@@ -13540,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>213</v>
       </c>
@@ -13587,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>213</v>
       </c>
@@ -13634,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>213</v>
       </c>
@@ -13681,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>213</v>
       </c>
@@ -13728,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>213</v>
       </c>
@@ -13775,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>213</v>
       </c>
@@ -13822,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>213</v>
       </c>
@@ -13869,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>213</v>
       </c>
@@ -13916,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>213</v>
       </c>
@@ -13963,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>213</v>
       </c>
@@ -14010,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>213</v>
       </c>
@@ -14057,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>213</v>
       </c>
@@ -14104,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>213</v>
       </c>
@@ -14133,22 +14130,22 @@
         <v>49</v>
       </c>
       <c r="K284">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L284">
-        <v>63603.35</v>
+        <v>63759.48</v>
       </c>
       <c r="M284">
         <v>1</v>
       </c>
       <c r="N284">
-        <v>63603.35</v>
+        <v>63759.48</v>
       </c>
       <c r="O284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>213</v>
       </c>
@@ -14195,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>213</v>
       </c>
@@ -14242,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>213</v>
       </c>
@@ -14289,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>213</v>
       </c>
@@ -14336,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>213</v>
       </c>
@@ -14383,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>213</v>
       </c>
@@ -14430,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>213</v>
       </c>
@@ -14477,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>213</v>
       </c>
@@ -14524,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>213</v>
       </c>
@@ -14571,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>213</v>
       </c>
@@ -14618,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>213</v>
       </c>
@@ -14665,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>214</v>
       </c>
@@ -14709,7 +14706,7 @@
         <v>209.54</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>214</v>
       </c>
@@ -14753,7 +14750,7 @@
         <v>547.58000000000004</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>214</v>
       </c>
@@ -14797,7 +14794,7 @@
         <v>5713.41</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>214</v>
       </c>
@@ -14844,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>214</v>
       </c>
@@ -14891,7 +14888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>214</v>
       </c>
@@ -14938,7 +14935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>214</v>
       </c>
@@ -14985,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>214</v>
       </c>
@@ -15032,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>214</v>
       </c>
@@ -15079,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>214</v>
       </c>
@@ -15126,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>214</v>
       </c>
@@ -15173,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>214</v>
       </c>
@@ -15220,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>214</v>
       </c>
@@ -15267,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>214</v>
       </c>
@@ -15314,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>214</v>
       </c>
@@ -15361,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>214</v>
       </c>
@@ -15408,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>214</v>
       </c>
@@ -15455,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>214</v>
       </c>
@@ -15502,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>214</v>
       </c>
@@ -15549,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>214</v>
       </c>
@@ -15596,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>214</v>
       </c>
@@ -15643,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>214</v>
       </c>
@@ -15690,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>214</v>
       </c>
@@ -15737,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>214</v>
       </c>
@@ -15784,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>214</v>
       </c>
@@ -15813,22 +15810,22 @@
         <v>70</v>
       </c>
       <c r="K320">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L320">
-        <v>90861.93</v>
+        <v>91084.97</v>
       </c>
       <c r="M320">
         <v>1</v>
       </c>
       <c r="N320">
-        <v>90861.93</v>
+        <v>91084.97</v>
       </c>
       <c r="O320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>214</v>
       </c>
@@ -15875,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>214</v>
       </c>
@@ -15922,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>214</v>
       </c>
@@ -15969,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>214</v>
       </c>
@@ -16016,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>214</v>
       </c>
@@ -16063,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>214</v>
       </c>
@@ -16110,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>214</v>
       </c>
@@ -16157,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>214</v>
       </c>
@@ -16204,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>214</v>
       </c>
@@ -16251,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>214</v>
       </c>
@@ -16298,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>214</v>
       </c>
@@ -16345,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>215</v>
       </c>
@@ -16389,7 +16386,7 @@
         <v>163.08000000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>215</v>
       </c>
@@ -16433,7 +16430,7 @@
         <v>417.14</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>215</v>
       </c>
@@ -16477,7 +16474,7 @@
         <v>3723.17</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>215</v>
       </c>
@@ -16524,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>215</v>
       </c>
@@ -16571,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>215</v>
       </c>
@@ -16618,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>215</v>
       </c>
@@ -16665,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>215</v>
       </c>
@@ -16712,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>215</v>
       </c>
@@ -16759,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>215</v>
       </c>
@@ -16806,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>215</v>
       </c>
@@ -16853,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>215</v>
       </c>
@@ -16900,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>215</v>
       </c>
@@ -16947,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>215</v>
       </c>
@@ -16994,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>215</v>
       </c>
@@ -17041,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>215</v>
       </c>
@@ -17088,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>215</v>
       </c>
@@ -17135,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>215</v>
       </c>
@@ -17182,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>215</v>
       </c>
@@ -17229,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>215</v>
       </c>
@@ -17276,7 +17273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>215</v>
       </c>
@@ -17323,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>215</v>
       </c>
@@ -17370,7 +17367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>215</v>
       </c>
@@ -17417,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>215</v>
       </c>
@@ -17464,7 +17461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>215</v>
       </c>
@@ -17493,22 +17490,22 @@
         <v>66</v>
       </c>
       <c r="K356">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L356">
-        <v>85669.82</v>
+        <v>85880.12</v>
       </c>
       <c r="M356">
         <v>1</v>
       </c>
       <c r="N356">
-        <v>85669.82</v>
+        <v>85880.12</v>
       </c>
       <c r="O356">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>215</v>
       </c>
@@ -17555,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>215</v>
       </c>
@@ -17602,7 +17599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>215</v>
       </c>
@@ -17649,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>215</v>
       </c>
@@ -17696,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>215</v>
       </c>
@@ -17743,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>215</v>
       </c>
@@ -17790,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>215</v>
       </c>
@@ -17837,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>215</v>
       </c>
@@ -17884,7 +17881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>215</v>
       </c>
@@ -17931,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>215</v>
       </c>
@@ -17978,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>215</v>
       </c>
@@ -18025,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>216</v>
       </c>
@@ -18072,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>216</v>
       </c>
@@ -18119,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>216</v>
       </c>
@@ -18163,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>216</v>
       </c>
@@ -18210,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>216</v>
       </c>
@@ -18257,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>216</v>
       </c>
@@ -18304,7 +18301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>216</v>
       </c>
@@ -18351,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>216</v>
       </c>
@@ -18398,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>216</v>
       </c>
@@ -18445,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>216</v>
       </c>
@@ -18492,7 +18489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>216</v>
       </c>
@@ -18539,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>216</v>
       </c>
@@ -18586,7 +18583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>216</v>
       </c>
@@ -18633,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>216</v>
       </c>
@@ -18680,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>216</v>
       </c>
@@ -18727,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>216</v>
       </c>
@@ -18774,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -18803,22 +18800,22 @@
         <v>71</v>
       </c>
       <c r="K384">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L384">
-        <v>92159.95</v>
+        <v>92386.19</v>
       </c>
       <c r="M384">
         <v>1</v>
       </c>
       <c r="N384">
-        <v>92159.95</v>
+        <v>92386.19</v>
       </c>
       <c r="O384">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>216</v>
       </c>
@@ -18865,7 +18862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>216</v>
       </c>
@@ -18912,7 +18909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>216</v>
       </c>
@@ -18959,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>216</v>
       </c>
@@ -19006,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>216</v>
       </c>
@@ -19053,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>216</v>
       </c>
@@ -19100,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>216</v>
       </c>
@@ -19147,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>216</v>
       </c>
@@ -19194,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>216</v>
       </c>
@@ -19241,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>216</v>
       </c>
@@ -19288,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>216</v>
       </c>
@@ -19335,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>216</v>
       </c>
@@ -19382,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>216</v>
       </c>
@@ -19426,7 +19423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>236</v>
       </c>
@@ -19470,7 +19467,7 @@
         <v>563.02</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>236</v>
       </c>
@@ -19514,7 +19511,7 @@
         <v>839.16</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>236</v>
       </c>
@@ -19558,7 +19555,7 @@
         <v>8782.3700000000008</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>236</v>
       </c>
@@ -19605,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>236</v>
       </c>
@@ -19652,7 +19649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>236</v>
       </c>
@@ -19696,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>236</v>
       </c>
@@ -19743,7 +19740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>236</v>
       </c>
@@ -19790,7 +19787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>236</v>
       </c>
@@ -19837,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>236</v>
       </c>
@@ -19884,7 +19881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>236</v>
       </c>
@@ -19931,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>236</v>
       </c>
@@ -19978,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>236</v>
       </c>
@@ -20025,7 +20022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>236</v>
       </c>
@@ -20072,7 +20069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>236</v>
       </c>
@@ -20119,7 +20116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>236</v>
       </c>
@@ -20166,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>236</v>
       </c>
@@ -20213,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>236</v>
       </c>
@@ -20260,7 +20257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>236</v>
       </c>
@@ -20289,22 +20286,22 @@
         <v>36</v>
       </c>
       <c r="K416">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L416">
-        <v>46728.99</v>
+        <v>46843.7</v>
       </c>
       <c r="M416">
         <v>1</v>
       </c>
       <c r="N416">
-        <v>46728.99</v>
+        <v>46843.7</v>
       </c>
       <c r="O416">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>236</v>
       </c>
@@ -20351,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>236</v>
       </c>
@@ -20398,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>236</v>
       </c>
@@ -20445,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>236</v>
       </c>
@@ -20492,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>236</v>
       </c>
@@ -20539,7 +20536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>236</v>
       </c>
@@ -20586,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>236</v>
       </c>
@@ -20633,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>236</v>
       </c>
@@ -20680,7 +20677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>236</v>
       </c>
@@ -20727,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>236</v>
       </c>
@@ -20774,7 +20771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>236</v>
       </c>
@@ -20821,7 +20818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>236</v>
       </c>
@@ -20868,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>236</v>
       </c>
@@ -20915,7 +20912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>236</v>
       </c>
@@ -20959,7 +20956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>239</v>
       </c>
@@ -21003,7 +21000,7 @@
         <v>442.17</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>239</v>
       </c>
@@ -21047,7 +21044,7 @@
         <v>960.39</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>239</v>
       </c>
@@ -21091,7 +21088,7 @@
         <v>8269.7800000000007</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>239</v>
       </c>
@@ -21138,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>239</v>
       </c>
@@ -21185,7 +21182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>239</v>
       </c>
@@ -21229,7 +21226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>239</v>
       </c>
@@ -21276,7 +21273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>239</v>
       </c>
@@ -21323,7 +21320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>239</v>
       </c>
@@ -21370,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>239</v>
       </c>
@@ -21417,7 +21414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>239</v>
       </c>
@@ -21464,7 +21461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>239</v>
       </c>
@@ -21511,7 +21508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>239</v>
       </c>
@@ -21558,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>239</v>
       </c>
@@ -21605,7 +21602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>239</v>
       </c>
@@ -21652,7 +21649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>239</v>
       </c>
@@ -21699,7 +21696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>239</v>
       </c>
@@ -21746,7 +21743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>239</v>
       </c>
@@ -21793,7 +21790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>239</v>
       </c>
@@ -21822,22 +21819,22 @@
         <v>49</v>
       </c>
       <c r="K449">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L449">
-        <v>63603.35</v>
+        <v>63759.48</v>
       </c>
       <c r="M449">
         <v>1</v>
       </c>
       <c r="N449">
-        <v>63603.35</v>
+        <v>63759.48</v>
       </c>
       <c r="O449">
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>239</v>
       </c>
@@ -21884,7 +21881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>239</v>
       </c>
@@ -21931,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>239</v>
       </c>
@@ -21978,7 +21975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>239</v>
       </c>
@@ -22025,7 +22022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>239</v>
       </c>
@@ -22072,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>239</v>
       </c>
@@ -22119,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>239</v>
       </c>
@@ -22166,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>239</v>
       </c>
@@ -22213,7 +22210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>239</v>
       </c>
@@ -22260,7 +22257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>239</v>
       </c>
@@ -22307,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>239</v>
       </c>
@@ -22354,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>239</v>
       </c>
@@ -22401,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>239</v>
       </c>
@@ -22448,7 +22445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>239</v>
       </c>
@@ -22492,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>240</v>
       </c>
@@ -22536,7 +22533,7 @@
         <v>254.26</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>240</v>
       </c>
@@ -22580,7 +22577,7 @@
         <v>722.87</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>240</v>
       </c>
@@ -22624,7 +22621,7 @@
         <v>7251.69</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>240</v>
       </c>
@@ -22671,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>240</v>
       </c>
@@ -22718,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>240</v>
       </c>
@@ -22762,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>240</v>
       </c>
@@ -22809,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>240</v>
       </c>
@@ -22856,7 +22853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>240</v>
       </c>
@@ -22903,7 +22900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>240</v>
       </c>
@@ -22950,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>240</v>
       </c>
@@ -22997,7 +22994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>240</v>
       </c>
@@ -23044,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>240</v>
       </c>
@@ -23091,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>240</v>
       </c>
@@ -23138,7 +23135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>240</v>
       </c>
@@ -23185,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>240</v>
       </c>
@@ -23232,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>240</v>
       </c>
@@ -23279,7 +23276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>240</v>
       </c>
@@ -23326,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>240</v>
       </c>
@@ -23355,22 +23352,22 @@
         <v>57</v>
       </c>
       <c r="K482">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L482">
-        <v>73987.570000000007</v>
+        <v>74169.19</v>
       </c>
       <c r="M482">
         <v>1</v>
       </c>
       <c r="N482">
-        <v>73987.570000000007</v>
+        <v>74169.19</v>
       </c>
       <c r="O482">
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>240</v>
       </c>
@@ -23417,7 +23414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>240</v>
       </c>
@@ -23464,7 +23461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>240</v>
       </c>
@@ -23511,7 +23508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>240</v>
       </c>
@@ -23558,7 +23555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>240</v>
       </c>
@@ -23605,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>240</v>
       </c>
@@ -23652,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>240</v>
       </c>
@@ -23699,7 +23696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>240</v>
       </c>
@@ -23746,7 +23743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>240</v>
       </c>
@@ -23793,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>240</v>
       </c>
@@ -23840,7 +23837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>240</v>
       </c>
@@ -23887,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>240</v>
       </c>
@@ -23934,7 +23931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>240</v>
       </c>
@@ -23981,7 +23978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>240</v>
       </c>
@@ -24025,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>241</v>
       </c>
@@ -24069,7 +24066,7 @@
         <v>153.33000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>241</v>
       </c>
@@ -24113,7 +24110,7 @@
         <v>424.35</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>241</v>
       </c>
@@ -24157,7 +24154,7 @@
         <v>3742.17</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>241</v>
       </c>
@@ -24204,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>241</v>
       </c>
@@ -24251,7 +24248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>241</v>
       </c>
@@ -24295,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>241</v>
       </c>
@@ -24342,7 +24339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>241</v>
       </c>
@@ -24389,7 +24386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>241</v>
       </c>
@@ -24436,7 +24433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>241</v>
       </c>
@@ -24483,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>241</v>
       </c>
@@ -24530,7 +24527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>241</v>
       </c>
@@ -24577,7 +24574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>241</v>
       </c>
@@ -24624,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>241</v>
       </c>
@@ -24671,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>241</v>
       </c>
@@ -24718,7 +24715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>241</v>
       </c>
@@ -24765,7 +24762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>241</v>
       </c>
@@ -24812,7 +24809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>241</v>
       </c>
@@ -24859,7 +24856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>241</v>
       </c>
@@ -24906,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>241</v>
       </c>
@@ -24935,22 +24932,22 @@
         <v>54</v>
       </c>
       <c r="K516">
-        <v>1298.0274999999999</v>
+        <v>1301.2139</v>
       </c>
       <c r="L516">
-        <v>70093.490000000005</v>
+        <v>70265.55</v>
       </c>
       <c r="M516">
         <v>1</v>
       </c>
       <c r="N516">
-        <v>70093.490000000005</v>
+        <v>70265.55</v>
       </c>
       <c r="O516">
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>241</v>
       </c>
@@ -24997,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>241</v>
       </c>
@@ -25044,7 +25041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>241</v>
       </c>
@@ -25091,7 +25088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>241</v>
       </c>
@@ -25138,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>241</v>
       </c>
@@ -25185,7 +25182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>241</v>
       </c>
@@ -25232,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>241</v>
       </c>
@@ -25279,7 +25276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>241</v>
       </c>
@@ -25326,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>241</v>
       </c>
@@ -25373,7 +25370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>241</v>
       </c>
@@ -25420,7 +25417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>241</v>
       </c>
@@ -25467,7 +25464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>241</v>
       </c>
@@ -25514,7 +25511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>241</v>
       </c>
@@ -25561,7 +25558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>241</v>
       </c>
@@ -25605,7 +25602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>15</v>
       </c>
@@ -25619,16 +25616,16 @@
         <v>20</v>
       </c>
       <c r="L531">
-        <v>43196.35</v>
+        <v>46070.239999999998</v>
       </c>
       <c r="M531">
         <v>1</v>
       </c>
       <c r="N531">
-        <v>43196.35</v>
-      </c>
-    </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+        <v>46070.239999999998</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>42</v>
       </c>
@@ -25651,7 +25648,7 @@
         <v>19965.68</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>50</v>
       </c>
@@ -25665,16 +25662,16 @@
         <v>20</v>
       </c>
       <c r="L533">
-        <v>25607.15</v>
+        <v>25894.83</v>
       </c>
       <c r="M533">
         <v>1</v>
       </c>
       <c r="N533">
-        <v>25607.15</v>
-      </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+        <v>25894.83</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>52</v>
       </c>
@@ -25688,16 +25685,16 @@
         <v>20</v>
       </c>
       <c r="L534">
-        <v>22242.66</v>
+        <v>22643.1</v>
       </c>
       <c r="M534">
         <v>1</v>
       </c>
       <c r="N534">
-        <v>22242.66</v>
-      </c>
-    </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22643.1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>54</v>
       </c>
@@ -25711,16 +25708,16 @@
         <v>20</v>
       </c>
       <c r="L535">
-        <v>34167.22</v>
+        <v>34927.620000000003</v>
       </c>
       <c r="M535">
         <v>1</v>
       </c>
       <c r="N535">
-        <v>34167.22</v>
-      </c>
-    </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+        <v>34927.620000000003</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>56</v>
       </c>
@@ -25734,16 +25731,16 @@
         <v>20</v>
       </c>
       <c r="L536">
-        <v>34672.559999999998</v>
+        <v>35661.360000000001</v>
       </c>
       <c r="M536">
         <v>1</v>
       </c>
       <c r="N536">
-        <v>34672.559999999998</v>
-      </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+        <v>35661.360000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>58</v>
       </c>
@@ -25757,16 +25754,16 @@
         <v>20</v>
       </c>
       <c r="L537">
-        <v>41562.44</v>
+        <v>42966.14</v>
       </c>
       <c r="M537">
         <v>1</v>
       </c>
       <c r="N537">
-        <v>41562.44</v>
-      </c>
-    </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+        <v>42966.14</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>60</v>
       </c>
@@ -25780,16 +25777,16 @@
         <v>20</v>
       </c>
       <c r="L538">
-        <v>31133.95</v>
+        <v>32422</v>
       </c>
       <c r="M538">
         <v>1</v>
       </c>
       <c r="N538">
-        <v>31133.95</v>
-      </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32422</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>62</v>
       </c>
@@ -25803,16 +25800,16 @@
         <v>20</v>
       </c>
       <c r="L539">
-        <v>56336.41</v>
+        <v>59068.63</v>
       </c>
       <c r="M539">
         <v>1</v>
       </c>
       <c r="N539">
-        <v>56336.41</v>
-      </c>
-    </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+        <v>59068.63</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>64</v>
       </c>
@@ -25826,16 +25823,16 @@
         <v>20</v>
       </c>
       <c r="L540">
-        <v>11525.88</v>
+        <v>11929.21</v>
       </c>
       <c r="M540">
         <v>1</v>
       </c>
       <c r="N540">
-        <v>11525.88</v>
-      </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+        <v>11929.21</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>89</v>
       </c>
@@ -25849,16 +25846,16 @@
         <v>20</v>
       </c>
       <c r="L541">
-        <v>9790.14</v>
+        <v>9959.2800000000007</v>
       </c>
       <c r="M541">
         <v>1</v>
       </c>
       <c r="N541">
-        <v>9790.14</v>
-      </c>
-    </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9959.2800000000007</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>101</v>
       </c>
@@ -25872,16 +25869,16 @@
         <v>20</v>
       </c>
       <c r="L542">
-        <v>11151.6</v>
+        <v>11406.03</v>
       </c>
       <c r="M542">
         <v>1</v>
       </c>
       <c r="N542">
-        <v>11151.6</v>
-      </c>
-    </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+        <v>11406.03</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>102</v>
       </c>
@@ -25904,7 +25901,7 @@
         <v>8122.19</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>112</v>
       </c>
@@ -25927,7 +25924,7 @@
         <v>-499999</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>116</v>
       </c>
@@ -25950,7 +25947,7 @@
         <v>10349.52</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>117</v>
       </c>
@@ -25973,7 +25970,7 @@
         <v>17775.97</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>119</v>
       </c>
@@ -25996,7 +25993,7 @@
         <v>18969.53</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>121</v>
       </c>
@@ -26019,7 +26016,7 @@
         <v>19602.509999999998</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>123</v>
       </c>
@@ -26042,7 +26039,7 @@
         <v>20920.18</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>125</v>
       </c>
@@ -26065,7 +26062,7 @@
         <v>17351.05</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>127</v>
       </c>
@@ -26088,7 +26085,7 @@
         <v>22383.9</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>129</v>
       </c>
@@ -26102,16 +26099,16 @@
         <v>20</v>
       </c>
       <c r="L552">
-        <v>53701.95</v>
+        <v>55861.24</v>
       </c>
       <c r="M552">
         <v>1</v>
       </c>
       <c r="N552">
-        <v>53701.95</v>
-      </c>
-    </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
+        <v>55861.24</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>212</v>
       </c>
@@ -26125,16 +26122,16 @@
         <v>20</v>
       </c>
       <c r="L553">
-        <v>61018.82</v>
+        <v>61774.96</v>
       </c>
       <c r="M553">
         <v>1</v>
       </c>
       <c r="N553">
-        <v>61018.82</v>
-      </c>
-    </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
+        <v>61774.96</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>213</v>
       </c>
@@ -26148,16 +26145,16 @@
         <v>20</v>
       </c>
       <c r="L554">
-        <v>83284.44</v>
+        <v>84189.5</v>
       </c>
       <c r="M554">
         <v>1</v>
       </c>
       <c r="N554">
-        <v>83284.44</v>
-      </c>
-    </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84189.5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>214</v>
       </c>
@@ -26171,16 +26168,16 @@
         <v>20</v>
       </c>
       <c r="L555">
-        <v>89719.65</v>
+        <v>90885.16</v>
       </c>
       <c r="M555">
         <v>1</v>
       </c>
       <c r="N555">
-        <v>89719.65</v>
-      </c>
-    </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
+        <v>90885.16</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>215</v>
       </c>
@@ -26194,16 +26191,16 @@
         <v>20</v>
       </c>
       <c r="L556">
-        <v>91677.35</v>
+        <v>94134.74</v>
       </c>
       <c r="M556">
         <v>1</v>
       </c>
       <c r="N556">
-        <v>91677.35</v>
-      </c>
-    </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
+        <v>94134.74</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>216</v>
       </c>
@@ -26217,16 +26214,16 @@
         <v>20</v>
       </c>
       <c r="L557">
-        <v>49012.67</v>
+        <v>52338.26</v>
       </c>
       <c r="M557">
         <v>1</v>
       </c>
       <c r="N557">
-        <v>49012.67</v>
-      </c>
-    </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
+        <v>52338.26</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -26240,16 +26237,16 @@
         <v>20</v>
       </c>
       <c r="L558">
-        <v>120228.3</v>
+        <v>121244.69</v>
       </c>
       <c r="M558">
         <v>1</v>
       </c>
       <c r="N558">
-        <v>120228.3</v>
-      </c>
-    </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
+        <v>121244.69</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>239</v>
       </c>
@@ -26263,16 +26260,16 @@
         <v>20</v>
       </c>
       <c r="L559">
-        <v>132497.35</v>
+        <v>133868.23000000001</v>
       </c>
       <c r="M559">
         <v>1</v>
       </c>
       <c r="N559">
-        <v>132497.35</v>
-      </c>
-    </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
+        <v>133868.23000000001</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>240</v>
       </c>
@@ -26286,16 +26283,16 @@
         <v>20</v>
       </c>
       <c r="L560">
-        <v>144379.13</v>
+        <v>145998.5</v>
       </c>
       <c r="M560">
         <v>1</v>
       </c>
       <c r="N560">
-        <v>144379.13</v>
-      </c>
-    </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
+        <v>145998.5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>241</v>
       </c>
@@ -26309,18 +26306,17 @@
         <v>20</v>
       </c>
       <c r="L561">
-        <v>79640.850000000006</v>
+        <v>82202.100000000006</v>
       </c>
       <c r="M561">
         <v>1</v>
       </c>
       <c r="N561">
-        <v>79640.850000000006</v>
+        <v>82202.100000000006</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:O561" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>